--- a/biology/Zoologie/Crosbyarachne_bukovskyi/Crosbyarachne_bukovskyi.xlsx
+++ b/biology/Zoologie/Crosbyarachne_bukovskyi/Crosbyarachne_bukovskyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosbyarachne bukovskyi est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crosbyarachne bukovskyi est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Turquie, en Russie en Ciscaucasie et en Ukraine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Turquie, en Russie en Ciscaucasie et en Ukraine.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 0,655 mm de long sur 0,475 mm et l'abdomen 0,64 mm de long sur 0,46 mm[2].
-Le mâle décrit par Gnelitsa en 2009 mesure 1,37 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 0,655 mm de long sur 0,475 mm et l'abdomen 0,64 mm de long sur 0,46 mm.
+Le mâle décrit par Gnelitsa en 2009 mesure 1,37 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Charitonov en 1937.
-Tapinocyba korgei[4] a été placée en synonymie par Gnelitsa en 2009[3].
+Tapinocyba korgei a été placée en synonymie par Gnelitsa en 2009.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de V. J. Bukovsky[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de V. J. Bukovsky. 
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Charitonov, 1937 : « Contribution to the fauna of Crimean spiders. » Festschrift Prof. Dr. Embrik Strand, vol. 3, p. 127-140.</t>
         </is>
